--- a/Data/FF_FactorsLong.xlsx
+++ b/Data/FF_FactorsLong.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivang\Dropbox\BOOK_FE\BookData\DataLibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivang\Documents\GitHub\EoFE_DCG_Springer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E14B1BC-1283-4BD0-9C4D-B42191CFE966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88EFED4-DAF2-4ACE-90E9-C99FBAFADD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-F_Research_Data_Factors" sheetId="1" r:id="rId1"/>
+    <sheet name="Factors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,9 +579,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -619,7 +619,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -725,7 +725,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -867,14 +867,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
